--- a/Questions/jpopName.xlsx
+++ b/Questions/jpopName.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B25883-9B2E-B841-AE14-413D8A88C7F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F506FE4-DFC1-284F-98F9-74E75E6B5628}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="1000" windowWidth="27900" windowHeight="16440" xr2:uid="{8662027D-9626-9D4E-B951-E46C20233BAA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="159">
   <si>
     <t>id</t>
   </si>
@@ -653,6 +653,15 @@
   <si>
     <t>밤을달리다</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SX_ViT4Ra7k</t>
+  </si>
+  <si>
+    <t>bD_RzOaqj2Q</t>
+  </si>
+  <si>
+    <t>hFU9Z_K7arg</t>
   </si>
 </sst>
 </file>
@@ -1027,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C3B3C0-1700-644D-B8EE-4ED839D7A718}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1061,6 +1070,12 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
@@ -1072,6 +1087,12 @@
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3">
+        <v>65</v>
+      </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
@@ -1082,6 +1103,12 @@
     <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>

--- a/Questions/jpopName.xlsx
+++ b/Questions/jpopName.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F506FE4-DFC1-284F-98F9-74E75E6B5628}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F73ACB-0D5E-B04A-B989-E0E1470AB0C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="1000" windowWidth="27900" windowHeight="16440" xr2:uid="{8662027D-9626-9D4E-B951-E46C20233BAA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="162">
   <si>
     <t>id</t>
   </si>
@@ -662,6 +662,15 @@
   </si>
   <si>
     <t>hFU9Z_K7arg</t>
+  </si>
+  <si>
+    <t>6SNscvxLP4E</t>
+  </si>
+  <si>
+    <t>fNxN5-jeoJ0</t>
+  </si>
+  <si>
+    <t>uwnyEjvzP8g</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1046,7 @@
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1129,6 +1138,12 @@
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
@@ -1137,6 +1152,12 @@
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
       <c r="D7" t="s">
         <v>13</v>
       </c>
@@ -1147,6 +1168,12 @@
     <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8">
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>

--- a/Questions/jpopName.xlsx
+++ b/Questions/jpopName.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F73ACB-0D5E-B04A-B989-E0E1470AB0C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CF57ED-ACFC-B948-A53B-F020A2541847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1000" windowWidth="27900" windowHeight="16440" xr2:uid="{8662027D-9626-9D4E-B951-E46C20233BAA}"/>
+    <workbookView xWindow="28800" yWindow="3140" windowWidth="19200" windowHeight="14860" xr2:uid="{8662027D-9626-9D4E-B951-E46C20233BAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="167">
   <si>
     <t>id</t>
   </si>
@@ -71,14 +71,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>버터플라이</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>butter-fly Butter-fly butterfly Butterfly</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>내가죽으려고생각한것은</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -671,6 +663,29 @@
   </si>
   <si>
     <t>uwnyEjvzP8g</t>
+  </si>
+  <si>
+    <t>pE5dfZr4KD4</t>
+  </si>
+  <si>
+    <t>GjmHkhdanJ0</t>
+  </si>
+  <si>
+    <t>QhOFg_3RV5Q</t>
+  </si>
+  <si>
+    <t>sFVIPvM8ngs</t>
+  </si>
+  <si>
+    <t>-lMAhTUN70Q</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cEXmLVJY1Ew</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uh6dkL1M9DM</t>
   </si>
 </sst>
 </file>
@@ -722,11 +737,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1045,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C3B3C0-1700-644D-B8EE-4ED839D7A718}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1080,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -1097,7 +1115,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C3">
         <v>65</v>
@@ -1114,7 +1132,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1127,11 +1145,14 @@
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
       <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1139,13 +1160,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C6">
         <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1153,16 +1174,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1170,76 +1191,112 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C8">
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10">
+        <v>85</v>
+      </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12">
+        <v>60</v>
+      </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14">
+        <v>34</v>
+      </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1247,10 +1304,10 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1258,7 +1315,7 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1266,10 +1323,10 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1277,10 +1334,10 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1288,10 +1345,10 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1299,10 +1356,10 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1310,7 +1367,7 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1318,7 +1375,7 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1326,7 +1383,7 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1334,10 +1391,10 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1345,7 +1402,7 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1353,7 +1410,7 @@
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1361,7 +1418,7 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1369,10 +1426,10 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1380,7 +1437,7 @@
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1388,7 +1445,7 @@
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1396,7 +1453,7 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1404,10 +1461,10 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1415,10 +1472,10 @@
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1426,10 +1483,10 @@
         <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1437,7 +1494,7 @@
         <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1445,10 +1502,10 @@
         <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1456,10 +1513,10 @@
         <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E37" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1467,7 +1524,7 @@
         <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1475,7 +1532,7 @@
         <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1483,10 +1540,10 @@
         <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E40" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1494,7 +1551,7 @@
         <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1502,10 +1559,10 @@
         <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1513,7 +1570,7 @@
         <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1521,7 +1578,7 @@
         <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1529,7 +1586,7 @@
         <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1537,7 +1594,7 @@
         <v>45</v>
       </c>
       <c r="D46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1545,7 +1602,7 @@
         <v>46</v>
       </c>
       <c r="D47" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1553,10 +1610,10 @@
         <v>47</v>
       </c>
       <c r="D48" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E48" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1564,10 +1621,10 @@
         <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E49" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1575,10 +1632,10 @@
         <v>49</v>
       </c>
       <c r="D50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E50" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1586,10 +1643,10 @@
         <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1597,7 +1654,7 @@
         <v>51</v>
       </c>
       <c r="D52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1605,7 +1662,7 @@
         <v>52</v>
       </c>
       <c r="D53" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1613,7 +1670,7 @@
         <v>53</v>
       </c>
       <c r="D54" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1621,10 +1678,10 @@
         <v>54</v>
       </c>
       <c r="D55" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1632,10 +1689,10 @@
         <v>55</v>
       </c>
       <c r="D56" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E56" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1643,10 +1700,10 @@
         <v>56</v>
       </c>
       <c r="D57" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E57" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1654,10 +1711,10 @@
         <v>57</v>
       </c>
       <c r="D58" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E58" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1665,10 +1722,10 @@
         <v>58</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E59" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1676,7 +1733,7 @@
         <v>59</v>
       </c>
       <c r="D60" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1684,7 +1741,7 @@
         <v>60</v>
       </c>
       <c r="D61" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1692,7 +1749,7 @@
         <v>61</v>
       </c>
       <c r="D62" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1700,10 +1757,10 @@
         <v>62</v>
       </c>
       <c r="D63" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1711,7 +1768,7 @@
         <v>63</v>
       </c>
       <c r="D64" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1719,10 +1776,10 @@
         <v>64</v>
       </c>
       <c r="D65" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E65" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1730,10 +1787,10 @@
         <v>65</v>
       </c>
       <c r="D66" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E66" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1741,7 +1798,7 @@
         <v>66</v>
       </c>
       <c r="D67" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1749,10 +1806,10 @@
         <v>67</v>
       </c>
       <c r="D68" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E68" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1760,10 +1817,10 @@
         <v>68</v>
       </c>
       <c r="D69" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E69" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1771,7 +1828,7 @@
         <v>69</v>
       </c>
       <c r="D70" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1779,7 +1836,7 @@
         <v>70</v>
       </c>
       <c r="D71" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1787,7 +1844,7 @@
         <v>71</v>
       </c>
       <c r="D72" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1795,10 +1852,10 @@
         <v>72</v>
       </c>
       <c r="D73" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E73" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1806,10 +1863,10 @@
         <v>73</v>
       </c>
       <c r="D74" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E74" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1817,7 +1874,7 @@
         <v>74</v>
       </c>
       <c r="D75" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1825,7 +1882,7 @@
         <v>75</v>
       </c>
       <c r="D76" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1833,7 +1890,7 @@
         <v>76</v>
       </c>
       <c r="D77" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1841,10 +1898,10 @@
         <v>77</v>
       </c>
       <c r="D78" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E78" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1852,7 +1909,7 @@
         <v>78</v>
       </c>
       <c r="D79" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1860,10 +1917,10 @@
         <v>79</v>
       </c>
       <c r="D80" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E80" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1871,7 +1928,7 @@
         <v>80</v>
       </c>
       <c r="D81" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1879,7 +1936,7 @@
         <v>81</v>
       </c>
       <c r="D82" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1887,7 +1944,7 @@
         <v>82</v>
       </c>
       <c r="D83" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1895,10 +1952,10 @@
         <v>83</v>
       </c>
       <c r="D84" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E84" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1906,10 +1963,10 @@
         <v>84</v>
       </c>
       <c r="D85" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E85" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1917,10 +1974,10 @@
         <v>85</v>
       </c>
       <c r="D86" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E86" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1928,7 +1985,7 @@
         <v>86</v>
       </c>
       <c r="D87" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1936,10 +1993,10 @@
         <v>87</v>
       </c>
       <c r="D88" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E88" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1947,10 +2004,10 @@
         <v>88</v>
       </c>
       <c r="D89" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E89" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1958,10 +2015,10 @@
         <v>89</v>
       </c>
       <c r="D90" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E90" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1969,10 +2026,10 @@
         <v>90</v>
       </c>
       <c r="D91" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E91" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1980,10 +2037,10 @@
         <v>91</v>
       </c>
       <c r="D92" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E92" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1991,7 +2048,7 @@
         <v>92</v>
       </c>
       <c r="D93" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1999,7 +2056,7 @@
         <v>93</v>
       </c>
       <c r="D94" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2007,7 +2064,7 @@
         <v>94</v>
       </c>
       <c r="D95" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2015,10 +2072,10 @@
         <v>95</v>
       </c>
       <c r="D96" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E96" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2026,10 +2083,10 @@
         <v>96</v>
       </c>
       <c r="D97" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E97" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2037,7 +2094,7 @@
         <v>97</v>
       </c>
       <c r="D98" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2045,10 +2102,10 @@
         <v>98</v>
       </c>
       <c r="D99" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E99" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2056,7 +2113,7 @@
         <v>99</v>
       </c>
       <c r="D100" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2064,7 +2121,7 @@
         <v>100</v>
       </c>
       <c r="D101" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
